--- a/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T14:06:07+00:00</t>
+    <t>2024-01-13T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1454,6 +1454,9 @@
     <t>Organization.identifier:VPNR.assigner.display</t>
   </si>
   <si>
+    <t>Dachverband der österreichischen Sozialversicherungsträger</t>
+  </si>
+  <si>
     <t>Organization.identifier:VKZ</t>
   </si>
   <si>
@@ -2165,9 +2168,6 @@
   </si>
   <si>
     <t>Patient.identifier.assigner.display</t>
-  </si>
-  <si>
-    <t>Dachverband der österreichischen Sozialversicherungsträger</t>
   </si>
   <si>
     <t>Patient.identifier:bPK</t>
@@ -5798,7 +5798,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="106">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="107">
@@ -5822,7 +5822,7 @@
         <v>8</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109">
@@ -5830,7 +5830,7 @@
         <v>10</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="110">
@@ -5874,7 +5874,7 @@
         <v>20</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="116">
@@ -5910,7 +5910,7 @@
         <v>28</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121">
@@ -5918,7 +5918,7 @@
         <v>30</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="122">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="R105" s="2"/>
       <c r="S105" t="s" s="2">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="T105" t="s" s="2">
         <v>72</v>
@@ -17438,13 +17438,13 @@
         <v>295</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>352</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E106" t="s" s="2">
         <v>72</v>
@@ -17545,7 +17545,7 @@
         <v>295</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>359</v>
@@ -17648,7 +17648,7 @@
         <v>295</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>360</v>
@@ -17753,7 +17753,7 @@
         <v>295</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>361</v>
@@ -17860,7 +17860,7 @@
         <v>295</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>369</v>
@@ -17967,7 +17967,7 @@
         <v>295</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>376</v>
@@ -17996,7 +17996,7 @@
         <v>198</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>378</v>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="R111" s="2"/>
       <c r="S111" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>72</v>
@@ -18074,7 +18074,7 @@
         <v>295</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>383</v>
@@ -18179,7 +18179,7 @@
         <v>295</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>389</v>
@@ -18282,7 +18282,7 @@
         <v>295</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>393</v>
@@ -18387,7 +18387,7 @@
         <v>295</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>415</v>
@@ -18490,7 +18490,7 @@
         <v>295</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>417</v>
@@ -18595,7 +18595,7 @@
         <v>295</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>419</v>
@@ -18700,7 +18700,7 @@
         <v>295</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>426</v>
@@ -18805,7 +18805,7 @@
         <v>295</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>434</v>
@@ -18910,7 +18910,7 @@
         <v>295</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>440</v>
@@ -19015,10 +19015,10 @@
         <v>295</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -19044,67 +19044,67 @@
         <v>268</v>
       </c>
       <c r="M121" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="Q121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG121" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="Q121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>73</v>
@@ -19124,10 +19124,10 @@
         <v>295</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -19153,16 +19153,16 @@
         <v>221</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P122" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q122" t="s" s="2">
         <v>72</v>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="Z122" s="2"/>
       <c r="AA122" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AB122" t="s" s="2">
         <v>72</v>
@@ -19209,7 +19209,7 @@
         <v>72</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>73</v>
@@ -19229,10 +19229,10 @@
         <v>295</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -19258,16 +19258,16 @@
         <v>83</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P123" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q123" t="s" s="2">
         <v>72</v>
@@ -19316,7 +19316,7 @@
         <v>72</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>73</v>
@@ -19336,10 +19336,10 @@
         <v>295</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -19365,16 +19365,16 @@
         <v>83</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P124" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q124" t="s" s="2">
         <v>72</v>
@@ -19423,7 +19423,7 @@
         <v>72</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>73</v>
@@ -19443,10 +19443,10 @@
         <v>295</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -19469,19 +19469,19 @@
         <v>72</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P125" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q125" t="s" s="2">
         <v>72</v>
@@ -19530,7 +19530,7 @@
         <v>72</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>73</v>
@@ -19539,10 +19539,10 @@
         <v>74</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126">
@@ -19550,10 +19550,10 @@
         <v>295</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -19576,7 +19576,7 @@
         <v>72</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>76</v>
@@ -19588,7 +19588,7 @@
         <v>78</v>
       </c>
       <c r="P126" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q126" t="s" s="2">
         <v>72</v>
@@ -19637,7 +19637,7 @@
         <v>72</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>73</v>
@@ -19649,7 +19649,7 @@
         <v>79</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127">
@@ -19657,10 +19657,10 @@
         <v>295</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -19686,14 +19686,14 @@
         <v>394</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q127" t="s" s="2">
         <v>72</v>
@@ -19742,7 +19742,7 @@
         <v>72</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>73</v>
@@ -19762,10 +19762,10 @@
         <v>295</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -19788,19 +19788,19 @@
         <v>72</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P128" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q128" t="s" s="2">
         <v>72</v>
@@ -19849,7 +19849,7 @@
         <v>72</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>73</v>
@@ -19869,10 +19869,10 @@
         <v>295</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -19972,10 +19972,10 @@
         <v>295</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -20077,14 +20077,14 @@
         <v>295</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" t="s" s="2">
@@ -20106,10 +20106,10 @@
         <v>89</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>92</v>
@@ -20164,7 +20164,7 @@
         <v>72</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>73</v>
@@ -20184,10 +20184,10 @@
         <v>295</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -20213,14 +20213,14 @@
         <v>221</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q132" t="s" s="2">
         <v>72</v>
@@ -20248,10 +20248,10 @@
         <v>222</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AB132" t="s" s="2">
         <v>72</v>
@@ -20269,7 +20269,7 @@
         <v>72</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>73</v>
@@ -20289,10 +20289,10 @@
         <v>295</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -20315,17 +20315,17 @@
         <v>72</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q133" t="s" s="2">
         <v>72</v>
@@ -20374,7 +20374,7 @@
         <v>72</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>73</v>
@@ -20394,10 +20394,10 @@
         <v>295</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -20420,17 +20420,17 @@
         <v>72</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q134" t="s" s="2">
         <v>72</v>
@@ -20479,7 +20479,7 @@
         <v>72</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>73</v>
@@ -20499,10 +20499,10 @@
         <v>295</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -20525,7 +20525,7 @@
         <v>72</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>76</v>
@@ -20537,7 +20537,7 @@
         <v>78</v>
       </c>
       <c r="P135" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q135" t="s" s="2">
         <v>72</v>
@@ -20586,7 +20586,7 @@
         <v>72</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>73</v>
@@ -20606,10 +20606,10 @@
         <v>295</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -20632,17 +20632,17 @@
         <v>72</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q136" t="s" s="2">
         <v>72</v>
@@ -20691,7 +20691,7 @@
         <v>72</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>73</v>
@@ -20708,17 +20708,17 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" t="s" s="2">
@@ -20740,10 +20740,10 @@
         <v>75</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -20794,7 +20794,7 @@
         <v>72</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>73</v>
@@ -20806,18 +20806,18 @@
         <v>72</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -20916,13 +20916,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -21019,13 +21019,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -21124,13 +21124,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -21229,13 +21229,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -21334,13 +21334,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -21439,13 +21439,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -21540,16 +21540,16 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B145" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="D145" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E145" t="s" s="2">
         <v>72</v>
@@ -21571,13 +21571,13 @@
         <v>72</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -21645,13 +21645,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -21748,13 +21748,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -21853,13 +21853,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B148" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C148" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="C148" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>211</v>
@@ -21958,13 +21958,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -22061,13 +22061,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -22164,13 +22164,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -22269,13 +22269,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -22304,7 +22304,7 @@
         <v>203</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -22335,7 +22335,7 @@
       </c>
       <c r="Z152" s="2"/>
       <c r="AA152" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AB152" t="s" s="2">
         <v>72</v>
@@ -22370,13 +22370,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -22473,13 +22473,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -22578,13 +22578,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
@@ -22685,13 +22685,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -22788,13 +22788,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -22893,13 +22893,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -22925,7 +22925,7 @@
         <v>198</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>243</v>
@@ -22941,7 +22941,7 @@
       </c>
       <c r="R158" s="2"/>
       <c r="S158" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T158" t="s" s="2">
         <v>72</v>
@@ -23000,13 +23000,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -23105,13 +23105,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -23210,13 +23210,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -23315,13 +23315,13 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -23422,13 +23422,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -23529,13 +23529,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>282</v>
@@ -23563,10 +23563,10 @@
         <v>89</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -23634,13 +23634,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -23737,13 +23737,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -23840,13 +23840,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -23945,13 +23945,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -23980,7 +23980,7 @@
         <v>203</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -24048,13 +24048,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -24094,7 +24094,7 @@
       </c>
       <c r="R169" s="2"/>
       <c r="S169" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>72</v>
@@ -24153,13 +24153,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -24188,7 +24188,7 @@
         <v>203</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -24256,13 +24256,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>207</v>
@@ -24287,7 +24287,7 @@
         <v>72</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M171" t="s" s="2">
         <v>208</v>
@@ -24361,13 +24361,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -24468,13 +24468,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -24500,14 +24500,14 @@
         <v>353</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q173" t="s" s="2">
         <v>72</v>
@@ -24544,7 +24544,7 @@
         <v>72</v>
       </c>
       <c r="AC173" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AD173" s="2"/>
       <c r="AE173" t="s" s="2">
@@ -24554,7 +24554,7 @@
         <v>95</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>73</v>
@@ -24571,13 +24571,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
@@ -24674,13 +24674,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -24779,13 +24779,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -24886,13 +24886,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -24991,13 +24991,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -25098,13 +25098,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -25203,13 +25203,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -25306,13 +25306,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -25411,16 +25411,16 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D182" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E182" t="s" s="2">
         <v>72</v>
@@ -25445,14 +25445,14 @@
         <v>353</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q182" t="s" s="2">
         <v>72</v>
@@ -25501,7 +25501,7 @@
         <v>72</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>73</v>
@@ -25518,13 +25518,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -25621,13 +25621,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
@@ -25726,13 +25726,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" t="s" s="2">
@@ -25833,13 +25833,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -25938,13 +25938,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -26041,13 +26041,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -26146,13 +26146,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -26253,13 +26253,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -26356,13 +26356,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -26461,13 +26461,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -26493,7 +26493,7 @@
         <v>198</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N192" t="s" s="2">
         <v>243</v>
@@ -26509,7 +26509,7 @@
       </c>
       <c r="R192" s="2"/>
       <c r="S192" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T192" t="s" s="2">
         <v>72</v>
@@ -26568,13 +26568,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
@@ -26673,13 +26673,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -26719,7 +26719,7 @@
       </c>
       <c r="R194" s="2"/>
       <c r="S194" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="T194" t="s" s="2">
         <v>72</v>
@@ -26778,13 +26778,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -26824,7 +26824,7 @@
       </c>
       <c r="R195" s="2"/>
       <c r="S195" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="T195" t="s" s="2">
         <v>72</v>
@@ -26883,13 +26883,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -26990,13 +26990,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -27097,13 +27097,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -27129,7 +27129,7 @@
         <v>198</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N198" t="s" s="2">
         <v>378</v>
@@ -27145,7 +27145,7 @@
       </c>
       <c r="R198" s="2"/>
       <c r="S198" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="T198" t="s" s="2">
         <v>72</v>
@@ -27204,13 +27204,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -27309,13 +27309,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -27412,13 +27412,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -27517,13 +27517,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -27620,13 +27620,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -27725,13 +27725,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -27830,13 +27830,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -27935,13 +27935,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -28040,13 +28040,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -28086,7 +28086,7 @@
       </c>
       <c r="R207" s="2"/>
       <c r="S207" t="s" s="2">
-        <v>695</v>
+        <v>464</v>
       </c>
       <c r="T207" t="s" s="2">
         <v>72</v>
@@ -28145,13 +28145,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>696</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>697</v>
@@ -28179,14 +28179,14 @@
         <v>353</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q208" t="s" s="2">
         <v>72</v>
@@ -28235,7 +28235,7 @@
         <v>72</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AH208" t="s" s="2">
         <v>73</v>
@@ -28252,13 +28252,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>698</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -28355,13 +28355,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>699</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -28460,13 +28460,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>700</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -28567,13 +28567,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>701</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -28672,13 +28672,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>702</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -28775,13 +28775,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>703</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -28880,13 +28880,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>704</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -28987,13 +28987,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>705</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -29090,13 +29090,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>706</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -29195,13 +29195,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>707</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -29227,7 +29227,7 @@
         <v>198</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N218" t="s" s="2">
         <v>243</v>
@@ -29243,7 +29243,7 @@
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>72</v>
@@ -29302,13 +29302,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>708</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -29407,13 +29407,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>709</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -29512,13 +29512,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>711</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -29617,13 +29617,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>713</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -29724,13 +29724,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>714</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -29831,13 +29831,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>715</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -29938,13 +29938,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>718</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
@@ -30043,13 +30043,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>719</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -30146,13 +30146,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>720</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
@@ -30251,13 +30251,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>721</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -30354,13 +30354,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>722</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -30459,13 +30459,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>723</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
@@ -30564,13 +30564,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>724</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30669,13 +30669,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>725</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30774,13 +30774,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>726</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30879,13 +30879,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>728</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>729</v>
@@ -30913,14 +30913,14 @@
         <v>353</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q234" t="s" s="2">
         <v>72</v>
@@ -30969,7 +30969,7 @@
         <v>72</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>73</v>
@@ -30986,13 +30986,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>730</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -31089,13 +31089,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>731</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -31194,13 +31194,13 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>732</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -31301,13 +31301,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>733</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -31406,13 +31406,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>734</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -31509,13 +31509,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>735</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -31614,13 +31614,13 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>736</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -31721,13 +31721,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>737</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31824,13 +31824,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>738</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31929,13 +31929,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>739</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31961,7 +31961,7 @@
         <v>198</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N244" t="s" s="2">
         <v>243</v>
@@ -31977,7 +31977,7 @@
       </c>
       <c r="R244" s="2"/>
       <c r="S244" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T244" t="s" s="2">
         <v>72</v>
@@ -32036,13 +32036,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>740</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -32141,13 +32141,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>741</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -32246,13 +32246,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>743</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -32351,13 +32351,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>745</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -32458,13 +32458,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>746</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -32565,13 +32565,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>747</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -32672,13 +32672,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>749</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32777,13 +32777,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>750</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -32880,13 +32880,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>751</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32985,7 +32985,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>752</v>
@@ -33032,7 +33032,7 @@
         <v>72</v>
       </c>
       <c r="R254" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S254" t="s" s="2">
         <v>72</v>
@@ -33094,7 +33094,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>757</v>
@@ -33123,7 +33123,7 @@
         <v>99</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M255" t="s" s="2">
         <v>758</v>
@@ -33201,7 +33201,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>762</v>
@@ -33304,7 +33304,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>763</v>
@@ -33409,7 +33409,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>764</v>
@@ -33516,7 +33516,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>772</v>
@@ -33623,7 +33623,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>777</v>
@@ -33728,7 +33728,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>783</v>
@@ -33833,7 +33833,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>789</v>
@@ -33936,7 +33936,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>793</v>
@@ -34039,7 +34039,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>797</v>
@@ -34144,7 +34144,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>802</v>
@@ -34173,7 +34173,7 @@
         <v>99</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M265" t="s" s="2">
         <v>803</v>
@@ -34185,7 +34185,7 @@
         <v>805</v>
       </c>
       <c r="P265" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q265" t="s" s="2">
         <v>72</v>
@@ -34251,7 +34251,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>806</v>
@@ -34354,7 +34354,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>807</v>
@@ -34459,7 +34459,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>808</v>
@@ -34562,7 +34562,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>815</v>
@@ -34669,7 +34669,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>821</v>
@@ -34776,7 +34776,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>829</v>
@@ -34881,7 +34881,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>835</v>
@@ -34984,7 +34984,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>839</v>
@@ -35091,7 +35091,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>846</v>
@@ -35198,7 +35198,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>852</v>
@@ -35303,7 +35303,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>860</v>
@@ -35412,7 +35412,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>862</v>
@@ -35521,7 +35521,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>865</v>
@@ -35550,7 +35550,7 @@
         <v>72</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>76</v>
@@ -35628,7 +35628,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>867</v>
@@ -35731,7 +35731,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>868</v>
@@ -35836,7 +35836,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>869</v>
@@ -35943,7 +35943,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>870</v>
@@ -36048,7 +36048,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>872</v>
@@ -36155,7 +36155,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>873</v>
@@ -36258,7 +36258,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>874</v>
@@ -36361,7 +36361,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>875</v>
@@ -36462,7 +36462,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>876</v>
@@ -36567,7 +36567,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>877</v>
@@ -36672,7 +36672,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>878</v>
@@ -36777,7 +36777,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>879</v>
@@ -36882,7 +36882,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>880</v>
@@ -36985,7 +36985,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>881</v>
@@ -37088,7 +37088,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>882</v>
@@ -37193,7 +37193,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>883</v>
@@ -37296,7 +37296,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>884</v>
@@ -37399,7 +37399,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>885</v>
@@ -37504,7 +37504,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>886</v>
@@ -37609,7 +37609,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>887</v>
@@ -37714,7 +37714,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>893</v>
@@ -37817,7 +37817,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>894</v>
@@ -37922,7 +37922,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>895</v>
@@ -38029,7 +38029,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>896</v>
@@ -38132,7 +38132,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>897</v>
@@ -38237,7 +38237,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>898</v>
@@ -38269,7 +38269,7 @@
         <v>198</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N304" t="s" s="2">
         <v>243</v>
@@ -38344,7 +38344,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>899</v>
@@ -38449,7 +38449,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>900</v>
@@ -38554,7 +38554,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>901</v>
@@ -38659,7 +38659,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>902</v>
@@ -38766,7 +38766,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>903</v>
@@ -38873,7 +38873,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>904</v>
@@ -38978,7 +38978,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>910</v>
@@ -39087,7 +39087,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>912</v>
@@ -39196,7 +39196,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>915</v>
@@ -39303,7 +39303,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>921</v>
@@ -39332,7 +39332,7 @@
         <v>72</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>922</v>
@@ -39410,7 +39410,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>927</v>
@@ -39513,7 +39513,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>928</v>
@@ -39618,7 +39618,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>929</v>
@@ -39628,7 +39628,7 @@
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" t="s" s="2">
@@ -39650,10 +39650,10 @@
         <v>89</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>92</v>
@@ -39708,7 +39708,7 @@
         <v>72</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>73</v>
@@ -39725,7 +39725,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>930</v>
@@ -39830,7 +39830,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>936</v>
@@ -39933,7 +39933,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>937</v>
@@ -40038,7 +40038,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>938</v>
@@ -40145,7 +40145,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>939</v>
@@ -40248,7 +40248,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>940</v>
@@ -40353,7 +40353,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>941</v>
@@ -40385,7 +40385,7 @@
         <v>198</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N324" t="s" s="2">
         <v>243</v>
@@ -40460,7 +40460,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>942</v>
@@ -40565,7 +40565,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>943</v>
@@ -40670,7 +40670,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>944</v>
@@ -40775,7 +40775,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>945</v>
@@ -40882,7 +40882,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>946</v>
@@ -40989,7 +40989,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>947</v>
@@ -41018,7 +41018,7 @@
         <v>72</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M330" t="s" s="2">
         <v>948</v>
@@ -41094,7 +41094,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>951</v>
@@ -41197,7 +41197,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>952</v>
@@ -41302,7 +41302,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>953</v>
@@ -41409,7 +41409,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>954</v>
@@ -41516,7 +41516,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>955</v>
@@ -41621,7 +41621,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>956</v>
@@ -41726,7 +41726,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>957</v>
@@ -41829,7 +41829,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>958</v>
@@ -41932,7 +41932,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>959</v>
@@ -42037,7 +42037,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>960</v>
@@ -42066,7 +42066,7 @@
         <v>72</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M340" t="s" s="2">
         <v>961</v>
@@ -42078,7 +42078,7 @@
         <v>963</v>
       </c>
       <c r="P340" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q340" t="s" s="2">
         <v>72</v>
@@ -42144,7 +42144,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>964</v>
@@ -42247,7 +42247,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>965</v>
@@ -42352,7 +42352,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>966</v>
@@ -42455,7 +42455,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>967</v>
@@ -42562,7 +42562,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>968</v>
@@ -42669,7 +42669,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>969</v>
@@ -42774,7 +42774,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>970</v>
@@ -42877,7 +42877,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>971</v>
@@ -42906,7 +42906,7 @@
         <v>72</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M348" t="s" s="2">
         <v>76</v>
@@ -42984,7 +42984,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>973</v>
@@ -43087,7 +43087,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>974</v>
@@ -43192,7 +43192,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>975</v>
@@ -43299,7 +43299,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>976</v>
@@ -43404,7 +43404,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>977</v>
@@ -43511,7 +43511,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>978</v>
@@ -43614,7 +43614,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>979</v>
@@ -43717,7 +43717,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>980</v>
@@ -43818,7 +43818,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>981</v>
@@ -43923,7 +43923,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>982</v>
@@ -44028,7 +44028,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>983</v>
@@ -44133,7 +44133,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>984</v>
@@ -44238,7 +44238,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>985</v>
@@ -44341,7 +44341,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>986</v>
@@ -44444,7 +44444,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>987</v>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>988</v>
@@ -44652,7 +44652,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>989</v>
@@ -44755,7 +44755,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>990</v>
@@ -44860,7 +44860,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>991</v>
@@ -44965,7 +44965,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>992</v>
@@ -45070,7 +45070,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>995</v>
@@ -45175,7 +45175,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>1000</v>
@@ -45278,7 +45278,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>1003</v>
@@ -45307,7 +45307,7 @@
         <v>72</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M371" t="s" s="2">
         <v>1004</v>
@@ -45385,7 +45385,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>1008</v>
@@ -45488,7 +45488,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>1009</v>
@@ -45593,7 +45593,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>1010</v>
@@ -45603,7 +45603,7 @@
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" t="s" s="2">
@@ -45625,10 +45625,10 @@
         <v>89</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>92</v>
@@ -45683,7 +45683,7 @@
         <v>72</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>73</v>
@@ -45700,7 +45700,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>1011</v>
@@ -45807,7 +45807,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>1016</v>
@@ -45914,7 +45914,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>1021</v>
@@ -46019,7 +46019,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>1027</v>
@@ -46126,7 +46126,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>1032</v>
@@ -46155,7 +46155,7 @@
         <v>99</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M379" t="s" s="2">
         <v>1033</v>
@@ -46233,7 +46233,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>1037</v>
@@ -46336,7 +46336,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>1038</v>
@@ -46441,7 +46441,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>1039</v>
@@ -46451,7 +46451,7 @@
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" t="s" s="2">
@@ -46473,10 +46473,10 @@
         <v>89</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>92</v>
@@ -46531,7 +46531,7 @@
         <v>72</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>73</v>
@@ -46548,7 +46548,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>1040</v>
@@ -46653,7 +46653,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>1045</v>
@@ -46854,7 +46854,7 @@
         <v>72</v>
       </c>
       <c r="AK385" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="386">
@@ -51737,7 +51737,7 @@
       </c>
       <c r="R432" s="2"/>
       <c r="S432" t="s" s="2">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="T432" t="s" s="2">
         <v>72</v>
@@ -53420,7 +53420,7 @@
         <v>72</v>
       </c>
       <c r="R448" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S448" t="s" s="2">
         <v>72</v>
@@ -53511,7 +53511,7 @@
         <v>99</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M449" t="s" s="2">
         <v>1138</v>
@@ -53618,7 +53618,7 @@
         <v>99</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M450" t="s" s="2">
         <v>1143</v>
@@ -53725,7 +53725,7 @@
         <v>72</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M451" t="s" s="2">
         <v>76</v>
@@ -54147,7 +54147,7 @@
         <v>72</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M455" t="s" s="2">
         <v>1160</v>
@@ -54439,7 +54439,7 @@
       </c>
       <c r="D458" s="2"/>
       <c r="E458" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F458" s="2"/>
       <c r="G458" t="s" s="2">
@@ -54461,10 +54461,10 @@
         <v>89</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O458" t="s" s="2">
         <v>92</v>
@@ -54519,7 +54519,7 @@
         <v>72</v>
       </c>
       <c r="AG458" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH458" t="s" s="2">
         <v>73</v>
@@ -55157,7 +55157,7 @@
         <v>72</v>
       </c>
       <c r="AK464" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="465">
@@ -56154,7 +56154,7 @@
         <v>72</v>
       </c>
       <c r="R474" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S474" t="s" s="2">
         <v>72</v>
@@ -56970,7 +56970,7 @@
         <v>99</v>
       </c>
       <c r="L482" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M482" t="s" s="2">
         <v>1244</v>
@@ -57075,7 +57075,7 @@
         <v>72</v>
       </c>
       <c r="L483" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M483" t="s" s="2">
         <v>1248</v>
@@ -57369,7 +57369,7 @@
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F486" s="2"/>
       <c r="G486" t="s" s="2">
@@ -57391,10 +57391,10 @@
         <v>89</v>
       </c>
       <c r="M486" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N486" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O486" t="s" s="2">
         <v>92</v>
@@ -57449,7 +57449,7 @@
         <v>72</v>
       </c>
       <c r="AG486" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH486" t="s" s="2">
         <v>73</v>
@@ -57911,7 +57911,7 @@
         <v>72</v>
       </c>
       <c r="L491" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M491" t="s" s="2">
         <v>1271</v>
@@ -58203,7 +58203,7 @@
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F494" s="2"/>
       <c r="G494" t="s" s="2">
@@ -58225,10 +58225,10 @@
         <v>89</v>
       </c>
       <c r="M494" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N494" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O494" t="s" s="2">
         <v>92</v>
@@ -58283,7 +58283,7 @@
         <v>72</v>
       </c>
       <c r="AG494" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH494" t="s" s="2">
         <v>73</v>
@@ -58638,7 +58638,7 @@
         <v>72</v>
       </c>
       <c r="L498" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M498" t="s" s="2">
         <v>1286</v>
@@ -61380,7 +61380,7 @@
         <v>72</v>
       </c>
       <c r="L524" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M524" t="s" s="2">
         <v>1391</v>
@@ -61672,7 +61672,7 @@
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F527" s="2"/>
       <c r="G527" t="s" s="2">
@@ -61694,10 +61694,10 @@
         <v>89</v>
       </c>
       <c r="M527" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N527" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O527" t="s" s="2">
         <v>92</v>
@@ -61752,7 +61752,7 @@
         <v>72</v>
       </c>
       <c r="AG527" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH527" t="s" s="2">
         <v>73</v>
@@ -62008,7 +62008,7 @@
         <v>99</v>
       </c>
       <c r="L530" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M530" t="s" s="2">
         <v>1405</v>
@@ -62403,7 +62403,7 @@
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F534" s="2"/>
       <c r="G534" t="s" s="2">
@@ -62425,10 +62425,10 @@
         <v>89</v>
       </c>
       <c r="M534" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N534" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O534" t="s" s="2">
         <v>92</v>
@@ -62483,7 +62483,7 @@
         <v>72</v>
       </c>
       <c r="AG534" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH534" t="s" s="2">
         <v>73</v>
@@ -62739,7 +62739,7 @@
         <v>72</v>
       </c>
       <c r="L537" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M537" t="s" s="2">
         <v>1427</v>
@@ -63033,7 +63033,7 @@
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F540" s="2"/>
       <c r="G540" t="s" s="2">
@@ -63055,10 +63055,10 @@
         <v>89</v>
       </c>
       <c r="M540" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N540" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O540" t="s" s="2">
         <v>92</v>
@@ -63113,7 +63113,7 @@
         <v>72</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>73</v>
@@ -63369,7 +63369,7 @@
         <v>72</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M543" t="s" s="2">
         <v>1443</v>
@@ -63663,7 +63663,7 @@
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F546" s="2"/>
       <c r="G546" t="s" s="2">
@@ -63685,10 +63685,10 @@
         <v>89</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O546" t="s" s="2">
         <v>92</v>
@@ -63743,7 +63743,7 @@
         <v>72</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>73</v>
@@ -64102,7 +64102,7 @@
         <v>99</v>
       </c>
       <c r="L550" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M550" t="s" s="2">
         <v>1463</v>
@@ -64396,7 +64396,7 @@
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F553" s="2"/>
       <c r="G553" t="s" s="2">
@@ -64418,10 +64418,10 @@
         <v>89</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O553" t="s" s="2">
         <v>92</v>
@@ -64476,7 +64476,7 @@
         <v>72</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>73</v>
@@ -65045,7 +65045,7 @@
         <v>72</v>
       </c>
       <c r="L559" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M559" t="s" s="2">
         <v>1494</v>
@@ -65339,7 +65339,7 @@
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F562" s="2"/>
       <c r="G562" t="s" s="2">
@@ -65361,10 +65361,10 @@
         <v>89</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N562" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O562" t="s" s="2">
         <v>92</v>
@@ -65419,7 +65419,7 @@
         <v>72</v>
       </c>
       <c r="AG562" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH562" t="s" s="2">
         <v>73</v>
@@ -65887,7 +65887,7 @@
         <v>72</v>
       </c>
       <c r="L567" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M567" t="s" s="2">
         <v>1518</v>
@@ -66181,7 +66181,7 @@
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F570" s="2"/>
       <c r="G570" t="s" s="2">
@@ -66203,10 +66203,10 @@
         <v>89</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O570" t="s" s="2">
         <v>92</v>
@@ -66261,7 +66261,7 @@
         <v>72</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>73</v>
@@ -66515,7 +66515,7 @@
         <v>72</v>
       </c>
       <c r="L573" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M573" t="s" s="2">
         <v>1533</v>
@@ -66908,7 +66908,7 @@
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F577" s="2"/>
       <c r="G577" t="s" s="2">
@@ -66930,10 +66930,10 @@
         <v>89</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O577" t="s" s="2">
         <v>92</v>
@@ -66988,7 +66988,7 @@
         <v>72</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>73</v>

--- a/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T13:57:04+00:00</t>
+    <t>2024-01-13T14:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T14:40:05+00:00</t>
+    <t>2024-01-13T15:31:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T15:31:15+00:00</t>
+    <t>2024-01-13T16:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
+++ b/r4-core-Profiles-for-Organization-Practitioner/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T16:17:47+00:00</t>
+    <t>2024-01-13T16:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
